--- a/xlsx/data.xlsx
+++ b/xlsx/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bd6ffaf480ac5cc/Office/pokeyellowCHS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Developer/PKMN_G1/pokeyellowCHS/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="489" documentId="13_ncr:1_{01CC60B8-E933-564B-A295-D054C4A1A83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F79BA00-9B6E-C141-AFD3-CDECF9CE8CAB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0742A7F9-1F3D-B142-B2BA-15EEFB024AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20200" yWindow="760" windowWidth="20440" windowHeight="20480" activeTab="7" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
+    <workbookView xWindow="14120" yWindow="760" windowWidth="20440" windowHeight="20480" activeTab="7" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="PM" sheetId="1" r:id="rId1"/>
@@ -7623,10 +7623,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结束　　　　　　v101@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Makefile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7644,6 +7640,10 @@
   </si>
   <si>
     <t>-Wtruncation=1 $(CHAR_FLAGS) -D _DEBUG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束　　　　　　v110@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7824,10 +7824,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16379,8 +16375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9419DE-5B49-5F4A-B230-D7BA1B4ADB25}">
   <dimension ref="A1:XFC358"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -16701,7 +16697,7 @@
         <v>1147</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2201</v>
+        <v>2206</v>
       </c>
       <c r="E39" t="s">
         <v>1285</v>
@@ -31687,7 +31683,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -31841,23 +31837,23 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="12" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>2203</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>2204</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="12" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>2205</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>2206</v>
       </c>
     </row>
     <row r="22" spans="1:4">

--- a/xlsx/data.xlsx
+++ b/xlsx/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Developer/PKMN_G1/pokeyellowCHS/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0742A7F9-1F3D-B142-B2BA-15EEFB024AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A1A961-5747-A242-B917-91572CA94646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14120" yWindow="760" windowWidth="20440" windowHeight="20480" activeTab="7" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
+    <workbookView xWindow="14120" yWindow="760" windowWidth="20440" windowHeight="20480" activeTab="6" xr2:uid="{5D9A02DE-DD85-974B-B8A1-A92382739B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="PM" sheetId="1" r:id="rId1"/>
@@ -6293,10 +6293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜登入名人堂  第@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>恭喜登入名人堂！@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7644,6 +7640,10 @@
   </si>
   <si>
     <t>结束　　　　　　v110@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 第   次 登入名人堂@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9543,7 +9543,7 @@
         <v>202</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>204</v>
@@ -9560,7 +9560,7 @@
         <v>205</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>207</v>
@@ -9577,7 +9577,7 @@
         <v>208</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>210</v>
@@ -10359,7 +10359,7 @@
         <v>320</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>322</v>
@@ -10376,7 +10376,7 @@
         <v>323</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>325</v>
@@ -11457,7 +11457,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="B2" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>450</v>
@@ -12376,7 +12376,7 @@
     <row r="2" spans="1:3">
       <c r="A2"/>
       <c r="B2" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>638</v>
@@ -12971,7 +12971,7 @@
         <v>785</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="77" spans="2:3">
@@ -13563,7 +13563,7 @@
         <v>932</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="151" spans="2:3">
@@ -13755,7 +13755,7 @@
     <row r="2" spans="1:3">
       <c r="A2"/>
       <c r="B2" s="5" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>968</v>
@@ -14565,10 +14565,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C18" t="s">
         <v>2029</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2030</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -14676,7 +14676,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="B4" s="1" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1256</v>
@@ -14748,7 +14748,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="1" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1256</v>
@@ -14828,7 +14828,7 @@
     </row>
     <row r="23" spans="2:8">
       <c r="F23" s="1" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>1256</v>
@@ -14839,7 +14839,7 @@
         <v>1235</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -14847,7 +14847,7 @@
         <v>1236</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -14865,7 +14865,7 @@
         <v>1239</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -14883,7 +14883,7 @@
         <v>1242</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -14891,7 +14891,7 @@
         <v>1243</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -14899,7 +14899,7 @@
         <v>1244</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -14907,7 +14907,7 @@
         <v>1245</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -14920,7 +14920,7 @@
         <v>1247</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -14928,7 +14928,7 @@
         <v>1244</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -14936,7 +14936,7 @@
         <v>1248</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -14944,12 +14944,12 @@
         <v>1249</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="B40" s="6" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -14957,7 +14957,7 @@
         <v>1251</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -14965,7 +14965,7 @@
         <v>1252</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -14973,7 +14973,7 @@
         <v>1253</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -14981,12 +14981,12 @@
         <v>1254</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="B45" s="6" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1433</v>
@@ -15020,16 +15020,16 @@
         <v>1150</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>1151</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -15037,7 +15037,7 @@
         <v>1152</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>1588</v>
@@ -15052,16 +15052,16 @@
         <v>1152</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>1153</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="49" spans="2:18">
@@ -15084,10 +15084,10 @@
         <v>1154</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Q49" s="10" t="s">
         <v>1586</v>
@@ -15113,7 +15113,7 @@
         <v>1155</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>1156</v>
@@ -15124,7 +15124,7 @@
         <v>1157</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>1591</v>
@@ -15139,13 +15139,13 @@
         <v>1157</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="Q51" s="10" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="52" spans="2:18">
@@ -15153,7 +15153,7 @@
         <v>1158</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>1592</v>
@@ -15168,16 +15168,16 @@
         <v>1158</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>1837</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="53" spans="2:18">
@@ -15185,7 +15185,7 @@
         <v>1159</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>1593</v>
@@ -15200,13 +15200,13 @@
         <v>1159</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="Q53" s="10" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="54" spans="2:18">
@@ -15229,13 +15229,13 @@
         <v>1160</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="55" spans="2:18">
@@ -15258,7 +15258,7 @@
         <v>1162</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>1163</v>
@@ -15284,7 +15284,7 @@
         <v>1164</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>1165</v>
@@ -15295,7 +15295,7 @@
         <v>1166</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>1597</v>
@@ -15310,16 +15310,16 @@
         <v>1166</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="Q57" s="1" t="s">
         <v>1167</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="58" spans="2:18">
@@ -15327,7 +15327,7 @@
         <v>1168</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>1598</v>
@@ -15342,16 +15342,16 @@
         <v>1168</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="Q58" s="1" t="s">
         <v>1169</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="59" spans="2:18">
@@ -15359,7 +15359,7 @@
         <v>1170</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>1599</v>
@@ -15374,16 +15374,16 @@
         <v>1170</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>1171</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="60" spans="2:18">
@@ -15406,7 +15406,7 @@
         <v>1172</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="Q60" s="1" t="s">
         <v>1173</v>
@@ -15417,7 +15417,7 @@
         <v>1174</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>1601</v>
@@ -15432,16 +15432,16 @@
         <v>1174</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="Q61" s="1" t="s">
         <v>1175</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="62" spans="2:18">
@@ -15464,7 +15464,7 @@
         <v>1176</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="Q62" s="1" t="s">
         <v>1177</v>
@@ -15490,7 +15490,7 @@
         <v>1178</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>1179</v>
@@ -15501,7 +15501,7 @@
         <v>1180</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>1604</v>
@@ -15516,10 +15516,10 @@
         <v>1180</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="Q64" s="10" t="s">
         <v>1181</v>
@@ -15530,7 +15530,7 @@
         <v>1182</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>1605</v>
@@ -15545,10 +15545,10 @@
         <v>1182</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="R65" s="7" t="s">
         <v>1433</v>
@@ -15559,7 +15559,7 @@
         <v>1183</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>1606</v>
@@ -15574,13 +15574,13 @@
         <v>1183</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="Q66" s="1" t="s">
         <v>1184</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="67" spans="2:18">
@@ -15603,16 +15603,16 @@
         <v>1170</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="Q67" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="R67" s="1" t="s">
         <v>1883</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>1884</v>
       </c>
     </row>
     <row r="68" spans="2:18">
@@ -15635,7 +15635,7 @@
         <v>1185</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="Q68" s="1" t="s">
         <v>1186</v>
@@ -15661,7 +15661,7 @@
         <v>1187</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="Q69" s="1" t="s">
         <v>1188</v>
@@ -15672,7 +15672,7 @@
         <v>1189</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>1609</v>
@@ -15687,16 +15687,16 @@
         <v>1189</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="Q70" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="R70" s="1" t="s">
         <v>1891</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="71" spans="2:18">
@@ -15719,7 +15719,7 @@
         <v>1190</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="Q71" s="1" t="s">
         <v>1191</v>
@@ -15730,7 +15730,7 @@
         <v>1192</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>1611</v>
@@ -15745,16 +15745,16 @@
         <v>1192</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="73" spans="2:18">
@@ -15762,7 +15762,7 @@
         <v>1193</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>1612</v>
@@ -15777,13 +15777,13 @@
         <v>1193</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="Q73" s="10" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="74" spans="2:18">
@@ -15806,16 +15806,16 @@
         <v>1194</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="Q74" s="1" t="s">
         <v>1855</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="75" spans="2:18">
@@ -15838,7 +15838,7 @@
         <v>1195</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="Q75" s="1" t="s">
         <v>1196</v>
@@ -15849,7 +15849,7 @@
         <v>1197</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>1615</v>
@@ -15864,16 +15864,16 @@
         <v>1197</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="Q76" s="1" t="s">
         <v>1198</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="77" spans="2:18">
@@ -15899,16 +15899,16 @@
         <v>1199</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="Q77" s="1" t="s">
         <v>1859</v>
       </c>
       <c r="R77" s="11" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="78" spans="2:18">
@@ -15916,7 +15916,7 @@
         <v>1201</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>1202</v>
@@ -15934,16 +15934,16 @@
         <v>1201</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="R78" s="11" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="79" spans="2:18">
@@ -15969,7 +15969,7 @@
         <v>1203</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="80" spans="2:18">
@@ -15995,7 +15995,7 @@
         <v>1205</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="81" spans="2:15">
@@ -16021,7 +16021,7 @@
         <v>1207</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="82" spans="2:15">
@@ -16047,7 +16047,7 @@
         <v>1209</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="83" spans="2:15">
@@ -16073,7 +16073,7 @@
         <v>1211</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="84" spans="2:15">
@@ -16099,7 +16099,7 @@
         <v>1213</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="85" spans="2:15">
@@ -16125,7 +16125,7 @@
         <v>1215</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="86" spans="2:15">
@@ -16151,7 +16151,7 @@
         <v>1217</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="87" spans="2:15">
@@ -16177,7 +16177,7 @@
         <v>1219</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="88" spans="2:15">
@@ -16203,7 +16203,7 @@
         <v>1221</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="89" spans="2:15">
@@ -16229,7 +16229,7 @@
         <v>1222</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="90" spans="2:15">
@@ -16255,7 +16255,7 @@
         <v>1224</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="91" spans="2:15">
@@ -16281,7 +16281,7 @@
         <v>1226</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="92" spans="2:15">
@@ -16307,7 +16307,7 @@
         <v>1228</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="93" spans="2:15">
@@ -16333,7 +16333,7 @@
         <v>1230</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="94" spans="2:15">
@@ -16375,8 +16375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9419DE-5B49-5F4A-B230-D7BA1B4ADB25}">
   <dimension ref="A1:XFC358"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -16457,7 +16457,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -16470,10 +16470,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C11" t="s">
         <v>1983</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1984</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -16497,106 +16497,106 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="C14" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="C15" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C16" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C17" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C18" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="C19" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="C20" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C21" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C22" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="C23" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="C24" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C25" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C26" t="s">
         <v>2133</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2134</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -16609,87 +16609,87 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C29" t="s">
         <v>1986</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1987</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C30" t="s">
         <v>1988</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1989</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="C31" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C32" t="s">
         <v>1990</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1991</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C33" t="s">
         <v>2179</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2180</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C34" t="s">
         <v>1992</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1993</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C35" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C36" t="s">
         <v>2149</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2150</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>2177</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>2178</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -16697,7 +16697,7 @@
         <v>1147</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="E39" t="s">
         <v>1285</v>
@@ -16705,178 +16705,178 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="B49" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="B50" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="B51" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="B52" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>2011</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>2012</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="B53" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="B54" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>2151</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>2152</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="B57" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>2153</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>2154</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="B58" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="B59" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>2183</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>2184</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>2185</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>2186</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -16967,7 +16967,7 @@
         <v>1308</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="F72" t="s">
         <v>1309</v>
@@ -17097,7 +17097,7 @@
         <v>1308</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="G87" s="4"/>
       <c r="K87" s="4"/>
@@ -21240,7 +21240,7 @@
         <v>1319</v>
       </c>
       <c r="C93" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="94" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383">
@@ -21248,7 +21248,7 @@
         <v>1320</v>
       </c>
       <c r="C94" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="95" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383">
@@ -29635,10 +29635,10 @@
     </row>
     <row r="120" spans="1:6">
       <c r="B120" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="F120" t="s">
         <v>1720</v>
@@ -29646,15 +29646,15 @@
     </row>
     <row r="121" spans="1:6">
       <c r="B121" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="B122" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>1727</v>
@@ -29665,10 +29665,10 @@
     </row>
     <row r="123" spans="1:6">
       <c r="B123" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -29695,7 +29695,7 @@
         <v>1357</v>
       </c>
       <c r="C126" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="F126" t="s">
         <v>1722</v>
@@ -29703,13 +29703,13 @@
     </row>
     <row r="127" spans="1:6">
       <c r="B127" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>1358</v>
       </c>
       <c r="F127" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -30488,7 +30488,7 @@
         <v>1489</v>
       </c>
       <c r="C227" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -30525,7 +30525,7 @@
         <v>1495</v>
       </c>
       <c r="C232" t="s">
-        <v>1872</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -30575,7 +30575,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -30588,15 +30588,15 @@
     </row>
     <row r="241" spans="1:6">
       <c r="B241" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>2049</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>2050</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="B242" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C242" t="s">
         <v>1744</v>
@@ -30628,7 +30628,7 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -30748,7 +30748,7 @@
         <v>1517</v>
       </c>
       <c r="C262" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="F262" t="s">
         <v>1518</v>
@@ -30767,10 +30767,10 @@
     </row>
     <row r="264" spans="1:6">
       <c r="B264" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C264" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="F264" t="s">
         <v>1521</v>
@@ -30839,7 +30839,7 @@
         <v>449</v>
       </c>
       <c r="C270" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -30855,10 +30855,10 @@
     </row>
     <row r="272" spans="1:6">
       <c r="B272" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C272" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="F272" t="s">
         <v>1521</v>
@@ -30924,7 +30924,7 @@
         <v>1517</v>
       </c>
       <c r="C278" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="F278" t="s">
         <v>1518</v>
@@ -30943,10 +30943,10 @@
     </row>
     <row r="280" spans="1:6">
       <c r="B280" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C280" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="F280" t="s">
         <v>1521</v>
@@ -30979,7 +30979,7 @@
         <v>1522</v>
       </c>
       <c r="C283" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="F283" t="s">
         <v>1527</v>
@@ -31015,7 +31015,7 @@
         <v>449</v>
       </c>
       <c r="C286" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -31031,10 +31031,10 @@
     </row>
     <row r="288" spans="1:6">
       <c r="B288" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C288" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="F288" t="s">
         <v>1521</v>
@@ -31067,7 +31067,7 @@
         <v>1534</v>
       </c>
       <c r="C291" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="F291" t="s">
         <v>1527</v>
@@ -31124,58 +31124,58 @@
     </row>
     <row r="297" spans="1:6">
       <c r="B297" s="7" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C297" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="B298" s="7" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="C298" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="B299" s="7" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C299" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="B300" s="7" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="C300" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="B301" s="7" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="C301" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="B302" s="7" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C302" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="B303" s="7" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C303" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -31191,7 +31191,7 @@
         <v>1546</v>
       </c>
       <c r="C305" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F305" t="s">
         <v>1547</v>
@@ -31202,7 +31202,7 @@
         <v>1548</v>
       </c>
       <c r="C306" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="F306" t="s">
         <v>1549</v>
@@ -31337,15 +31337,15 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="B322" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G322" t="s">
         <v>1733</v>
@@ -31364,7 +31364,7 @@
         <v>1730</v>
       </c>
       <c r="C324" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -31372,7 +31372,7 @@
         <v>1731</v>
       </c>
       <c r="C325" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -31385,10 +31385,10 @@
     </row>
     <row r="327" spans="1:7">
       <c r="B327" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="C327" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -31412,12 +31412,12 @@
         <v>1487</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -31457,7 +31457,7 @@
         <v>1774</v>
       </c>
       <c r="C336" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -31465,7 +31465,7 @@
         <v>1776</v>
       </c>
       <c r="C337" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -31539,7 +31539,7 @@
     </row>
     <row r="347" spans="1:6">
       <c r="B347" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C347" t="s">
         <v>1796</v>
@@ -31682,7 +31682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA242F4-66CD-6D4D-ACDF-2A955EF3AA35}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -31723,76 +31723,76 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="12" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="12" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="12" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="12" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="12" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="12" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="12" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="12" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>2047</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>449</v>
@@ -31800,34 +31800,34 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="12" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C14" t="s">
         <v>2189</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2190</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="13" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C15" t="s">
         <v>2191</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2192</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="12" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C16" t="s">
         <v>2193</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2194</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="12" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C17" t="s">
         <v>2195</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -31837,23 +31837,23 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="12" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>2202</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>2203</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="12" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>2204</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>2205</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -31889,168 +31889,168 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>449</v>
       </c>
       <c r="D2" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="G2" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="H2" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="D4" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="B6" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C6" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C7" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C8" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C9" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="D10" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C11" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C12" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C13" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>2075</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>2076</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>2103</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>2104</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -32087,10 +32087,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D25" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="26" spans="1:4">
